--- a/Team-Data/2009-10/4-11-2009-10.xlsx
+++ b/Team-Data/2009-10/4-11-2009-10.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" t="n">
         <v>29</v>
       </c>
       <c r="G2" t="n">
-        <v>0.633</v>
+        <v>0.638</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
       </c>
       <c r="I2" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J2" t="n">
         <v>83.09999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.465</v>
+        <v>0.466</v>
       </c>
       <c r="L2" t="n">
         <v>6.4</v>
@@ -696,16 +763,16 @@
         <v>17.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.359</v>
+        <v>0.361</v>
       </c>
       <c r="O2" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P2" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.761</v>
+        <v>0.76</v>
       </c>
       <c r="R2" t="n">
         <v>11.9</v>
@@ -714,16 +781,16 @@
         <v>29.8</v>
       </c>
       <c r="T2" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U2" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V2" t="n">
         <v>11.9</v>
       </c>
       <c r="W2" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X2" t="n">
         <v>5</v>
@@ -732,22 +799,22 @@
         <v>4.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.5</v>
+        <v>101.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF2" t="n">
         <v>8</v>
@@ -756,7 +823,7 @@
         <v>8</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>6</v>
@@ -774,10 +841,10 @@
         <v>14</v>
       </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP2" t="n">
         <v>22</v>
@@ -786,13 +853,13 @@
         <v>15</v>
       </c>
       <c r="AR2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS2" t="n">
         <v>24</v>
       </c>
       <c r="AT2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU2" t="n">
         <v>10</v>
@@ -801,10 +868,10 @@
         <v>1</v>
       </c>
       <c r="AW2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AX2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY2" t="n">
         <v>9</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-11-2009-10</t>
+          <t>2010-04-11</t>
         </is>
       </c>
     </row>
@@ -848,37 +915,37 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E3" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
         <v>30</v>
       </c>
       <c r="G3" t="n">
-        <v>0.615</v>
+        <v>0.625</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J3" t="n">
-        <v>76.8</v>
+        <v>76.7</v>
       </c>
       <c r="K3" t="n">
-        <v>0.485</v>
+        <v>0.484</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M3" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.346</v>
+        <v>0.348</v>
       </c>
       <c r="O3" t="n">
         <v>19.1</v>
@@ -887,13 +954,13 @@
         <v>25.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.745</v>
+        <v>0.746</v>
       </c>
       <c r="R3" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T3" t="n">
         <v>38.6</v>
@@ -905,10 +972,10 @@
         <v>15</v>
       </c>
       <c r="W3" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y3" t="n">
         <v>4.7</v>
@@ -920,13 +987,13 @@
         <v>21.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AD3" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>9</v>
@@ -938,28 +1005,28 @@
         <v>9</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK3" t="n">
         <v>4</v>
       </c>
       <c r="AL3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
         <v>10</v>
@@ -971,7 +1038,7 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AT3" t="n">
         <v>29</v>
@@ -980,22 +1047,22 @@
         <v>2</v>
       </c>
       <c r="AV3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW3" t="n">
         <v>2</v>
       </c>
       <c r="AX3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AY3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ3" t="n">
         <v>22</v>
       </c>
       <c r="BA3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-11-2009-10</t>
+          <t>2010-04-11</t>
         </is>
       </c>
     </row>
@@ -1030,61 +1097,61 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E4" t="n">
         <v>43</v>
       </c>
       <c r="F4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" t="n">
-        <v>0.544</v>
+        <v>0.538</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="J4" t="n">
-        <v>76.8</v>
+        <v>76.7</v>
       </c>
       <c r="K4" t="n">
-        <v>0.455</v>
+        <v>0.453</v>
       </c>
       <c r="L4" t="n">
         <v>5.7</v>
       </c>
       <c r="M4" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.349</v>
+        <v>0.347</v>
       </c>
       <c r="O4" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="P4" t="n">
         <v>26.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.751</v>
+        <v>0.748</v>
       </c>
       <c r="R4" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S4" t="n">
         <v>30.4</v>
       </c>
       <c r="T4" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U4" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V4" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W4" t="n">
         <v>7.7</v>
@@ -1093,22 +1160,22 @@
         <v>5.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA4" t="n">
         <v>22.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.7</v>
+        <v>95.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
@@ -1120,25 +1187,25 @@
         <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM4" t="n">
         <v>22</v>
       </c>
       <c r="AN4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="n">
         <v>4</v>
@@ -1147,13 +1214,13 @@
         <v>4</v>
       </c>
       <c r="AQ4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS4" t="n">
         <v>19</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>21</v>
       </c>
       <c r="AT4" t="n">
         <v>22</v>
@@ -1168,7 +1235,7 @@
         <v>8</v>
       </c>
       <c r="AX4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1180,10 +1247,10 @@
         <v>6</v>
       </c>
       <c r="BB4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-11-2009-10</t>
+          <t>2010-04-11</t>
         </is>
       </c>
     </row>
@@ -1212,40 +1279,40 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" t="n">
         <v>41</v>
       </c>
       <c r="G5" t="n">
-        <v>0.488</v>
+        <v>0.481</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J5" t="n">
         <v>83.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L5" t="n">
         <v>4.3</v>
       </c>
       <c r="M5" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.329</v>
+        <v>0.331</v>
       </c>
       <c r="O5" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P5" t="n">
         <v>23.9</v>
@@ -1257,19 +1324,19 @@
         <v>11.4</v>
       </c>
       <c r="S5" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="T5" t="n">
         <v>44.5</v>
       </c>
       <c r="U5" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V5" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W5" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X5" t="n">
         <v>5.8</v>
@@ -1284,13 +1351,13 @@
         <v>20</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.9</v>
+        <v>-2.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
@@ -1302,10 +1369,10 @@
         <v>18</v>
       </c>
       <c r="AH5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ5" t="n">
         <v>10</v>
@@ -1314,19 +1381,19 @@
         <v>23</v>
       </c>
       <c r="AL5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
         <v>29</v>
       </c>
       <c r="AN5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO5" t="n">
         <v>18</v>
       </c>
       <c r="AP5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
         <v>18</v>
@@ -1356,16 +1423,16 @@
         <v>24</v>
       </c>
       <c r="AZ5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA5" t="n">
         <v>25</v>
       </c>
       <c r="BB5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-11-2009-10</t>
+          <t>2010-04-11</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E6" t="n">
         <v>61</v>
       </c>
       <c r="F6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" t="n">
-        <v>0.772</v>
+        <v>0.763</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
       </c>
       <c r="I6" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J6" t="n">
-        <v>78</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.489</v>
+        <v>0.487</v>
       </c>
       <c r="L6" t="n">
         <v>7.4</v>
@@ -1424,19 +1491,19 @@
         <v>19.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.383</v>
+        <v>0.384</v>
       </c>
       <c r="O6" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P6" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.723</v>
+        <v>0.722</v>
       </c>
       <c r="R6" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="S6" t="n">
         <v>33</v>
@@ -1448,31 +1515,31 @@
         <v>22.5</v>
       </c>
       <c r="V6" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W6" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X6" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y6" t="n">
         <v>3.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.7</v>
+        <v>102.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1484,10 +1551,10 @@
         <v>1</v>
       </c>
       <c r="AH6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ6" t="n">
         <v>27</v>
@@ -1505,13 +1572,13 @@
         <v>2</v>
       </c>
       <c r="AO6" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR6" t="n">
         <v>27</v>
@@ -1541,13 +1608,13 @@
         <v>3</v>
       </c>
       <c r="BA6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-11-2009-10</t>
+          <t>2010-04-11</t>
         </is>
       </c>
     </row>
@@ -1576,28 +1643,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E7" t="n">
         <v>53</v>
       </c>
       <c r="F7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" t="n">
-        <v>0.671</v>
+        <v>0.663</v>
       </c>
       <c r="H7" t="n">
         <v>48.5</v>
       </c>
       <c r="I7" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J7" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="L7" t="n">
         <v>6.8</v>
@@ -1606,16 +1673,16 @@
         <v>18.2</v>
       </c>
       <c r="N7" t="n">
-        <v>0.373</v>
+        <v>0.371</v>
       </c>
       <c r="O7" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P7" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="R7" t="n">
         <v>10.2</v>
@@ -1627,7 +1694,7 @@
         <v>41.7</v>
       </c>
       <c r="U7" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V7" t="n">
         <v>13</v>
@@ -1636,7 +1703,7 @@
         <v>7.6</v>
       </c>
       <c r="X7" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y7" t="n">
         <v>4.1</v>
@@ -1645,16 +1712,16 @@
         <v>19.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>102</v>
+        <v>101.9</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
         <v>4</v>
@@ -1666,10 +1733,10 @@
         <v>4</v>
       </c>
       <c r="AH7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="n">
         <v>14</v>
@@ -1684,10 +1751,10 @@
         <v>13</v>
       </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP7" t="n">
         <v>26</v>
@@ -1702,7 +1769,7 @@
         <v>9</v>
       </c>
       <c r="AT7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU7" t="n">
         <v>4</v>
@@ -1711,22 +1778,22 @@
         <v>3</v>
       </c>
       <c r="AW7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AY7" t="n">
         <v>5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA7" t="n">
         <v>22</v>
       </c>
       <c r="BB7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-11-2009-10</t>
+          <t>2010-04-11</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E8" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8" t="n">
         <v>28</v>
       </c>
       <c r="G8" t="n">
-        <v>0.646</v>
+        <v>0.65</v>
       </c>
       <c r="H8" t="n">
         <v>48.3</v>
@@ -1776,16 +1843,16 @@
         <v>38</v>
       </c>
       <c r="J8" t="n">
-        <v>81.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K8" t="n">
-        <v>0.468</v>
+        <v>0.469</v>
       </c>
       <c r="L8" t="n">
         <v>6.6</v>
       </c>
       <c r="M8" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="N8" t="n">
         <v>0.36</v>
@@ -1815,7 +1882,7 @@
         <v>14</v>
       </c>
       <c r="W8" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X8" t="n">
         <v>5</v>
@@ -1830,31 +1897,31 @@
         <v>23.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>106.2</v>
+        <v>106.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK8" t="n">
         <v>9</v>
@@ -1866,7 +1933,7 @@
         <v>12</v>
       </c>
       <c r="AN8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1881,7 +1948,7 @@
         <v>18</v>
       </c>
       <c r="AS8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT8" t="n">
         <v>20</v>
@@ -1896,7 +1963,7 @@
         <v>3</v>
       </c>
       <c r="AX8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY8" t="n">
         <v>23</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-11-2009-10</t>
+          <t>2010-04-11</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" t="n">
         <v>54</v>
       </c>
       <c r="G9" t="n">
-        <v>0.316</v>
+        <v>0.325</v>
       </c>
       <c r="H9" t="n">
         <v>48.3</v>
@@ -1958,19 +2025,19 @@
         <v>35.8</v>
       </c>
       <c r="J9" t="n">
-        <v>80.7</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L9" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="M9" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.315</v>
+        <v>0.316</v>
       </c>
       <c r="O9" t="n">
         <v>17.7</v>
@@ -1979,13 +2046,13 @@
         <v>24.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.73</v>
+        <v>0.727</v>
       </c>
       <c r="R9" t="n">
         <v>12.9</v>
       </c>
       <c r="S9" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="T9" t="n">
         <v>40.3</v>
@@ -1997,7 +2064,7 @@
         <v>13.5</v>
       </c>
       <c r="W9" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X9" t="n">
         <v>3.8</v>
@@ -2006,19 +2073,19 @@
         <v>4.9</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>-5.5</v>
+        <v>-5.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
         <v>25</v>
@@ -2030,7 +2097,7 @@
         <v>25</v>
       </c>
       <c r="AH9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI9" t="n">
         <v>28</v>
@@ -2045,7 +2112,7 @@
         <v>28</v>
       </c>
       <c r="AM9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN9" t="n">
         <v>30</v>
@@ -2054,7 +2121,7 @@
         <v>22</v>
       </c>
       <c r="AP9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ9" t="n">
         <v>27</v>
@@ -2066,16 +2133,16 @@
         <v>30</v>
       </c>
       <c r="AT9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU9" t="n">
         <v>26</v>
       </c>
       <c r="AV9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX9" t="n">
         <v>28</v>
@@ -2084,10 +2151,10 @@
         <v>16</v>
       </c>
       <c r="AZ9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB9" t="n">
         <v>29</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-11-2009-10</t>
+          <t>2010-04-11</t>
         </is>
       </c>
     </row>
@@ -2125,49 +2192,49 @@
         <v>79</v>
       </c>
       <c r="E10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" t="n">
-        <v>0.316</v>
+        <v>0.304</v>
       </c>
       <c r="H10" t="n">
         <v>48.1</v>
       </c>
       <c r="I10" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="J10" t="n">
-        <v>86.5</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="K10" t="n">
         <v>0.47</v>
       </c>
       <c r="L10" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M10" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N10" t="n">
-        <v>0.376</v>
+        <v>0.373</v>
       </c>
       <c r="O10" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="P10" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.784</v>
+        <v>0.783</v>
       </c>
       <c r="R10" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="S10" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="T10" t="n">
         <v>38.4</v>
@@ -2188,28 +2255,28 @@
         <v>5</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AA10" t="n">
         <v>21.4</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.8</v>
+        <v>108.7</v>
       </c>
       <c r="AC10" t="n">
         <v>-3.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="AE10" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AF10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AH10" t="n">
         <v>25</v>
@@ -2230,10 +2297,10 @@
         <v>7</v>
       </c>
       <c r="AN10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AP10" t="n">
         <v>11</v>
@@ -2275,7 +2342,7 @@
         <v>2</v>
       </c>
       <c r="BC10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-11-2009-10</t>
+          <t>2010-04-11</t>
         </is>
       </c>
     </row>
@@ -2304,22 +2371,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E11" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" t="n">
         <v>38</v>
       </c>
       <c r="G11" t="n">
-        <v>0.513</v>
+        <v>0.519</v>
       </c>
       <c r="H11" t="n">
         <v>48.6</v>
       </c>
       <c r="I11" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J11" t="n">
         <v>84.40000000000001</v>
@@ -2328,16 +2395,16 @@
         <v>0.445</v>
       </c>
       <c r="L11" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M11" t="n">
         <v>22.4</v>
       </c>
       <c r="N11" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="O11" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P11" t="n">
         <v>24.7</v>
@@ -2349,25 +2416,25 @@
         <v>12</v>
       </c>
       <c r="S11" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="T11" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U11" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V11" t="n">
         <v>14.5</v>
       </c>
       <c r="W11" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X11" t="n">
         <v>3.8</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Z11" t="n">
         <v>20.9</v>
@@ -2376,13 +2443,13 @@
         <v>22.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>102.2</v>
+        <v>102</v>
       </c>
       <c r="AC11" t="n">
         <v>-0.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="n">
         <v>16</v>
@@ -2412,10 +2479,10 @@
         <v>4</v>
       </c>
       <c r="AN11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO11" t="n">
         <v>14</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>12</v>
       </c>
       <c r="AP11" t="n">
         <v>13</v>
@@ -2424,22 +2491,22 @@
         <v>11</v>
       </c>
       <c r="AR11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT11" t="n">
         <v>12</v>
       </c>
       <c r="AU11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV11" t="n">
         <v>17</v>
       </c>
       <c r="AW11" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AX11" t="n">
         <v>26</v>
@@ -2454,7 +2521,7 @@
         <v>2</v>
       </c>
       <c r="BB11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC11" t="n">
         <v>16</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-11-2009-10</t>
+          <t>2010-04-11</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E12" t="n">
         <v>32</v>
       </c>
       <c r="F12" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12" t="n">
-        <v>0.405</v>
+        <v>0.4</v>
       </c>
       <c r="H12" t="n">
         <v>48.1</v>
@@ -2504,10 +2571,10 @@
         <v>36.9</v>
       </c>
       <c r="J12" t="n">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="K12" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L12" t="n">
         <v>8.1</v>
@@ -2516,7 +2583,7 @@
         <v>23.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.348</v>
+        <v>0.35</v>
       </c>
       <c r="O12" t="n">
         <v>19</v>
@@ -2525,31 +2592,31 @@
         <v>24.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.773</v>
+        <v>0.774</v>
       </c>
       <c r="R12" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="S12" t="n">
         <v>32</v>
       </c>
       <c r="T12" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U12" t="n">
         <v>21.2</v>
       </c>
       <c r="V12" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W12" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X12" t="n">
         <v>5.4</v>
       </c>
       <c r="Y12" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z12" t="n">
         <v>22.5</v>
@@ -2558,13 +2625,13 @@
         <v>20.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>100.7</v>
+        <v>100.9</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.7</v>
+        <v>-2.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
@@ -2576,7 +2643,7 @@
         <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI12" t="n">
         <v>22</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AO12" t="n">
         <v>15</v>
@@ -2615,16 +2682,16 @@
         <v>19</v>
       </c>
       <c r="AU12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV12" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AW12" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AX12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY12" t="n">
         <v>18</v>
@@ -2633,13 +2700,13 @@
         <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB12" t="n">
         <v>16</v>
       </c>
       <c r="BC12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-11-2009-10</t>
+          <t>2010-04-11</t>
         </is>
       </c>
     </row>
@@ -2668,46 +2735,46 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E13" t="n">
         <v>28</v>
       </c>
       <c r="F13" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G13" t="n">
-        <v>0.359</v>
+        <v>0.35</v>
       </c>
       <c r="H13" t="n">
         <v>48.1</v>
       </c>
       <c r="I13" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J13" t="n">
         <v>80.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L13" t="n">
         <v>5.9</v>
       </c>
       <c r="M13" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="N13" t="n">
         <v>0.33</v>
       </c>
       <c r="O13" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P13" t="n">
         <v>22.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.732</v>
+        <v>0.729</v>
       </c>
       <c r="R13" t="n">
         <v>11.3</v>
@@ -2716,16 +2783,16 @@
         <v>30.4</v>
       </c>
       <c r="T13" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U13" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="V13" t="n">
         <v>15.7</v>
       </c>
       <c r="W13" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X13" t="n">
         <v>5.7</v>
@@ -2734,28 +2801,28 @@
         <v>4.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="AA13" t="n">
         <v>19.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>95.5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>-6.5</v>
+        <v>-6.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
         <v>22</v>
       </c>
       <c r="AF13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH13" t="n">
         <v>29</v>
@@ -2767,7 +2834,7 @@
         <v>22</v>
       </c>
       <c r="AK13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL13" t="n">
         <v>20</v>
@@ -2776,7 +2843,7 @@
         <v>15</v>
       </c>
       <c r="AN13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO13" t="n">
         <v>26</v>
@@ -2791,7 +2858,7 @@
         <v>13</v>
       </c>
       <c r="AS13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT13" t="n">
         <v>15</v>
@@ -2803,22 +2870,22 @@
         <v>28</v>
       </c>
       <c r="AW13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX13" t="n">
         <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA13" t="n">
         <v>26</v>
       </c>
       <c r="BB13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC13" t="n">
         <v>28</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-11-2009-10</t>
+          <t>2010-04-11</t>
         </is>
       </c>
     </row>
@@ -2853,13 +2920,13 @@
         <v>79</v>
       </c>
       <c r="E14" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G14" t="n">
-        <v>0.696</v>
+        <v>0.709</v>
       </c>
       <c r="H14" t="n">
         <v>48.4</v>
@@ -2877,37 +2944,37 @@
         <v>6.5</v>
       </c>
       <c r="M14" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.341</v>
+        <v>0.342</v>
       </c>
       <c r="O14" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="P14" t="n">
-        <v>24</v>
+        <v>24.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.768</v>
+        <v>0.767</v>
       </c>
       <c r="R14" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S14" t="n">
         <v>32.6</v>
       </c>
       <c r="T14" t="n">
-        <v>44.3</v>
+        <v>44.4</v>
       </c>
       <c r="U14" t="n">
         <v>21.1</v>
       </c>
       <c r="V14" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W14" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X14" t="n">
         <v>4.9</v>
@@ -2916,28 +2983,28 @@
         <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH14" t="n">
         <v>11</v>
@@ -2949,7 +3016,7 @@
         <v>7</v>
       </c>
       <c r="AK14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL14" t="n">
         <v>13</v>
@@ -2958,19 +3025,19 @@
         <v>10</v>
       </c>
       <c r="AN14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP14" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AQ14" t="n">
         <v>12</v>
       </c>
       <c r="AR14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AS14" t="n">
         <v>4</v>
@@ -2982,25 +3049,25 @@
         <v>16</v>
       </c>
       <c r="AV14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY14" t="n">
         <v>7</v>
       </c>
       <c r="AZ14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB14" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BC14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-11-2009-10</t>
+          <t>2010-04-11</t>
         </is>
       </c>
     </row>
@@ -3032,28 +3099,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E15" t="n">
         <v>40</v>
       </c>
       <c r="F15" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" t="n">
-        <v>0.506</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="n">
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="J15" t="n">
-        <v>83.90000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="K15" t="n">
-        <v>0.471</v>
+        <v>0.47</v>
       </c>
       <c r="L15" t="n">
         <v>4.3</v>
@@ -3062,34 +3129,34 @@
         <v>12.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.343</v>
+        <v>0.341</v>
       </c>
       <c r="O15" t="n">
         <v>19.5</v>
       </c>
       <c r="P15" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.733</v>
+        <v>0.732</v>
       </c>
       <c r="R15" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S15" t="n">
         <v>30.4</v>
       </c>
       <c r="T15" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="U15" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="V15" t="n">
         <v>15.3</v>
       </c>
       <c r="W15" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X15" t="n">
         <v>4.9</v>
@@ -3101,19 +3168,19 @@
         <v>20.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.8</v>
+        <v>102.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.9</v>
+        <v>-1.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF15" t="n">
         <v>17</v>
@@ -3122,25 +3189,25 @@
         <v>17</v>
       </c>
       <c r="AH15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK15" t="n">
         <v>7</v>
       </c>
       <c r="AL15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM15" t="n">
         <v>30</v>
       </c>
       <c r="AN15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO15" t="n">
         <v>9</v>
@@ -3158,10 +3225,10 @@
         <v>17</v>
       </c>
       <c r="AT15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AV15" t="n">
         <v>27</v>
@@ -3170,13 +3237,13 @@
         <v>7</v>
       </c>
       <c r="AX15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY15" t="n">
         <v>28</v>
       </c>
       <c r="AZ15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA15" t="n">
         <v>3</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-11-2009-10</t>
+          <t>2010-04-11</t>
         </is>
       </c>
     </row>
@@ -3235,43 +3302,43 @@
         <v>79.40000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L16" t="n">
         <v>6</v>
       </c>
       <c r="M16" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="N16" t="n">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="O16" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P16" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.751</v>
+        <v>0.752</v>
       </c>
       <c r="R16" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S16" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T16" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U16" t="n">
         <v>18.9</v>
       </c>
       <c r="V16" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W16" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X16" t="n">
         <v>5.6</v>
@@ -3283,16 +3350,16 @@
         <v>20.8</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB16" t="n">
         <v>96.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3316,22 +3383,22 @@
         <v>18</v>
       </c>
       <c r="AL16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN16" t="n">
         <v>20</v>
       </c>
       <c r="AO16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP16" t="n">
         <v>21</v>
       </c>
       <c r="AQ16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR16" t="n">
         <v>19</v>
@@ -3343,7 +3410,7 @@
         <v>14</v>
       </c>
       <c r="AU16" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AV16" t="n">
         <v>4</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-11-2009-10</t>
+          <t>2010-04-11</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="AI17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ17" t="n">
         <v>2</v>
@@ -3522,7 +3589,7 @@
         <v>11</v>
       </c>
       <c r="AT17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU17" t="n">
         <v>14</v>
@@ -3534,13 +3601,13 @@
         <v>18</v>
       </c>
       <c r="AX17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ17" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BA17" t="n">
         <v>20</v>
@@ -3549,7 +3616,7 @@
         <v>22</v>
       </c>
       <c r="BC17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-11-2009-10</t>
+          <t>2010-04-11</t>
         </is>
       </c>
     </row>
@@ -3581,82 +3648,82 @@
         <v>79</v>
       </c>
       <c r="E18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G18" t="n">
-        <v>0.177</v>
+        <v>0.19</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
       </c>
       <c r="I18" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J18" t="n">
-        <v>84.40000000000001</v>
+        <v>84.8</v>
       </c>
       <c r="K18" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L18" t="n">
         <v>4.9</v>
       </c>
       <c r="M18" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="N18" t="n">
         <v>0.34</v>
       </c>
       <c r="O18" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="P18" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.744</v>
+        <v>0.743</v>
       </c>
       <c r="R18" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="S18" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="T18" t="n">
-        <v>42.9</v>
+        <v>43.2</v>
       </c>
       <c r="U18" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V18" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="W18" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X18" t="n">
         <v>3.7</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z18" t="n">
         <v>20.6</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="AC18" t="n">
-        <v>-9.6</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3668,10 +3735,10 @@
         <v>29</v>
       </c>
       <c r="AH18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ18" t="n">
         <v>3</v>
@@ -3683,7 +3750,7 @@
         <v>26</v>
       </c>
       <c r="AM18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN18" t="n">
         <v>25</v>
@@ -3695,16 +3762,16 @@
         <v>23</v>
       </c>
       <c r="AQ18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR18" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AS18" t="n">
         <v>12</v>
       </c>
       <c r="AT18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AU18" t="n">
         <v>24</v>
@@ -3713,13 +3780,13 @@
         <v>30</v>
       </c>
       <c r="AW18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ18" t="n">
         <v>15</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-11-2009-10</t>
+          <t>2010-04-11</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E19" t="n">
         <v>12</v>
       </c>
       <c r="F19" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G19" t="n">
-        <v>0.152</v>
+        <v>0.15</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
@@ -3784,43 +3851,43 @@
         <v>0.431</v>
       </c>
       <c r="L19" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="M19" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="N19" t="n">
-        <v>0.325</v>
+        <v>0.322</v>
       </c>
       <c r="O19" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P19" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.779</v>
+        <v>0.78</v>
       </c>
       <c r="R19" t="n">
         <v>10.8</v>
       </c>
       <c r="S19" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="T19" t="n">
-        <v>39.3</v>
+        <v>39.5</v>
       </c>
       <c r="U19" t="n">
         <v>18.9</v>
       </c>
       <c r="V19" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W19" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X19" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y19" t="n">
         <v>5.1</v>
@@ -3835,10 +3902,10 @@
         <v>92.40000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-9.199999999999999</v>
+        <v>-9.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
         <v>30</v>
@@ -3850,7 +3917,7 @@
         <v>30</v>
       </c>
       <c r="AH19" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3871,16 +3938,16 @@
         <v>29</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP19" t="n">
         <v>15</v>
       </c>
       <c r="AQ19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AR19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS19" t="n">
         <v>29</v>
@@ -3889,22 +3956,22 @@
         <v>28</v>
       </c>
       <c r="AU19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV19" t="n">
         <v>15</v>
       </c>
       <c r="AW19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX19" t="n">
         <v>19</v>
       </c>
-      <c r="AX19" t="n">
-        <v>20</v>
-      </c>
       <c r="AY19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA19" t="n">
         <v>24</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-11-2009-10</t>
+          <t>2010-04-11</t>
         </is>
       </c>
     </row>
@@ -3945,13 +4012,13 @@
         <v>80</v>
       </c>
       <c r="E20" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F20" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G20" t="n">
-        <v>0.45</v>
+        <v>0.438</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3960,7 +4027,7 @@
         <v>38.6</v>
       </c>
       <c r="J20" t="n">
-        <v>83.59999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="K20" t="n">
         <v>0.462</v>
@@ -3972,34 +4039,34 @@
         <v>19.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.36</v>
+        <v>0.362</v>
       </c>
       <c r="O20" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="P20" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.781</v>
+        <v>0.777</v>
       </c>
       <c r="R20" t="n">
         <v>10.5</v>
       </c>
       <c r="S20" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T20" t="n">
-        <v>40.4</v>
+        <v>40.2</v>
       </c>
       <c r="U20" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="V20" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W20" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X20" t="n">
         <v>3.7</v>
@@ -4008,16 +4075,16 @@
         <v>4.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA20" t="n">
         <v>19.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>-2.4</v>
+        <v>-3</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -4032,7 +4099,7 @@
         <v>20</v>
       </c>
       <c r="AH20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI20" t="n">
         <v>7</v>
@@ -4041,7 +4108,7 @@
         <v>9</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
         <v>9</v>
@@ -4059,34 +4126,34 @@
         <v>30</v>
       </c>
       <c r="AQ20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV20" t="n">
         <v>5</v>
       </c>
-      <c r="AR20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>25</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>8</v>
-      </c>
       <c r="AW20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AX20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4095,7 +4162,7 @@
         <v>18</v>
       </c>
       <c r="BC20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-11-2009-10</t>
+          <t>2010-04-11</t>
         </is>
       </c>
     </row>
@@ -4142,28 +4209,28 @@
         <v>38.2</v>
       </c>
       <c r="J21" t="n">
-        <v>83.8</v>
+        <v>84</v>
       </c>
       <c r="K21" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L21" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="M21" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="N21" t="n">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="O21" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P21" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.781</v>
+        <v>0.78</v>
       </c>
       <c r="R21" t="n">
         <v>10.1</v>
@@ -4175,13 +4242,13 @@
         <v>40.5</v>
       </c>
       <c r="U21" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V21" t="n">
         <v>14</v>
       </c>
       <c r="W21" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X21" t="n">
         <v>3.8</v>
@@ -4199,19 +4266,19 @@
         <v>101.9</v>
       </c>
       <c r="AC21" t="n">
-        <v>-3.6</v>
+        <v>-3.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
       </c>
       <c r="AF21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH21" t="n">
         <v>5</v>
@@ -4220,7 +4287,7 @@
         <v>12</v>
       </c>
       <c r="AJ21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AK21" t="n">
         <v>20</v>
@@ -4235,7 +4302,7 @@
         <v>21</v>
       </c>
       <c r="AO21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP21" t="n">
         <v>28</v>
@@ -4247,13 +4314,13 @@
         <v>24</v>
       </c>
       <c r="AS21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT21" t="n">
         <v>24</v>
       </c>
       <c r="AU21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV21" t="n">
         <v>12</v>
@@ -4274,7 +4341,7 @@
         <v>29</v>
       </c>
       <c r="BB21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC21" t="n">
         <v>22</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-11-2009-10</t>
+          <t>2010-04-11</t>
         </is>
       </c>
     </row>
@@ -4309,37 +4376,37 @@
         <v>79</v>
       </c>
       <c r="E22" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F22" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G22" t="n">
-        <v>0.608</v>
+        <v>0.62</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J22" t="n">
-        <v>81.09999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="K22" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L22" t="n">
         <v>5</v>
       </c>
       <c r="M22" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.335</v>
+        <v>0.336</v>
       </c>
       <c r="O22" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="P22" t="n">
         <v>26.9</v>
@@ -4348,13 +4415,13 @@
         <v>0.805</v>
       </c>
       <c r="R22" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="S22" t="n">
         <v>31.8</v>
       </c>
       <c r="T22" t="n">
-        <v>43.7</v>
+        <v>43.5</v>
       </c>
       <c r="U22" t="n">
         <v>20</v>
@@ -4372,25 +4439,25 @@
         <v>4.7</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>101.4</v>
+        <v>101.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="AE22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF22" t="n">
         <v>9</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>10</v>
       </c>
       <c r="AG22" t="n">
         <v>10</v>
@@ -4402,10 +4469,10 @@
         <v>19</v>
       </c>
       <c r="AJ22" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AK22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL22" t="n">
         <v>25</v>
@@ -4426,19 +4493,19 @@
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AS22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU22" t="n">
         <v>23</v>
       </c>
       <c r="AV22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW22" t="n">
         <v>6</v>
@@ -4447,7 +4514,7 @@
         <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ22" t="n">
         <v>20</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-11-2009-10</t>
+          <t>2010-04-11</t>
         </is>
       </c>
     </row>
@@ -4503,13 +4570,13 @@
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J23" t="n">
         <v>77.90000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.467</v>
+        <v>0.468</v>
       </c>
       <c r="L23" t="n">
         <v>10.2</v>
@@ -4518,7 +4585,7 @@
         <v>27.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.372</v>
+        <v>0.375</v>
       </c>
       <c r="O23" t="n">
         <v>19.2</v>
@@ -4527,22 +4594,22 @@
         <v>26.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.722</v>
+        <v>0.723</v>
       </c>
       <c r="R23" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S23" t="n">
         <v>33.3</v>
       </c>
       <c r="T23" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U23" t="n">
         <v>19.5</v>
       </c>
       <c r="V23" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W23" t="n">
         <v>6.2</v>
@@ -4557,16 +4624,16 @@
         <v>19.9</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>102.1</v>
+        <v>102.3</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="AE23" t="n">
         <v>2</v>
@@ -4596,16 +4663,16 @@
         <v>1</v>
       </c>
       <c r="AN23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO23" t="n">
         <v>10</v>
       </c>
       <c r="AP23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR23" t="n">
         <v>26</v>
@@ -4623,7 +4690,7 @@
         <v>14</v>
       </c>
       <c r="AW23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX23" t="n">
         <v>5</v>
@@ -4638,10 +4705,10 @@
         <v>4</v>
       </c>
       <c r="BB23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-11-2009-10</t>
+          <t>2010-04-11</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E24" t="n">
         <v>27</v>
       </c>
       <c r="F24" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G24" t="n">
-        <v>0.342</v>
+        <v>0.338</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
@@ -4691,7 +4758,7 @@
         <v>81.90000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L24" t="n">
         <v>5.7</v>
@@ -4700,16 +4767,16 @@
         <v>16.7</v>
       </c>
       <c r="N24" t="n">
-        <v>0.34</v>
+        <v>0.341</v>
       </c>
       <c r="O24" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P24" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.758</v>
+        <v>0.757</v>
       </c>
       <c r="R24" t="n">
         <v>11.6</v>
@@ -4718,7 +4785,7 @@
         <v>29.7</v>
       </c>
       <c r="T24" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U24" t="n">
         <v>20.8</v>
@@ -4742,13 +4809,13 @@
         <v>18.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>-3.7</v>
+        <v>-3.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
         <v>24</v>
@@ -4760,28 +4827,28 @@
         <v>24</v>
       </c>
       <c r="AH24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ24" t="n">
         <v>15</v>
       </c>
       <c r="AK24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM24" t="n">
         <v>21</v>
       </c>
       <c r="AN24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO24" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AP24" t="n">
         <v>27</v>
@@ -4811,7 +4878,7 @@
         <v>9</v>
       </c>
       <c r="AY24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ24" t="n">
         <v>14</v>
@@ -4820,10 +4887,10 @@
         <v>30</v>
       </c>
       <c r="BB24" t="n">
+        <v>23</v>
+      </c>
+      <c r="BC24" t="n">
         <v>24</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>23</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-11-2009-10</t>
+          <t>2010-04-11</t>
         </is>
       </c>
     </row>
@@ -4867,19 +4934,19 @@
         <v>48.1</v>
       </c>
       <c r="I25" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="J25" t="n">
-        <v>83</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.491</v>
+        <v>0.492</v>
       </c>
       <c r="L25" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="M25" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="N25" t="n">
         <v>0.41</v>
@@ -4894,10 +4961,10 @@
         <v>0.773</v>
       </c>
       <c r="R25" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S25" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T25" t="n">
         <v>43</v>
@@ -4915,31 +4982,31 @@
         <v>5</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA25" t="n">
         <v>21.7</v>
       </c>
       <c r="AB25" t="n">
-        <v>110.2</v>
+        <v>110.1</v>
       </c>
       <c r="AC25" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH25" t="n">
         <v>25</v>
@@ -4975,31 +5042,31 @@
         <v>15</v>
       </c>
       <c r="AS25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU25" t="n">
         <v>3</v>
       </c>
       <c r="AV25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW25" t="n">
         <v>29</v>
       </c>
       <c r="AX25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY25" t="n">
         <v>12</v>
       </c>
-      <c r="AY25" t="n">
+      <c r="AZ25" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA25" t="n">
         <v>8</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>18</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>7</v>
       </c>
       <c r="BB25" t="n">
         <v>1</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-11-2009-10</t>
+          <t>2010-04-11</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5116,7 @@
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J26" t="n">
         <v>78.59999999999999</v>
@@ -5058,70 +5125,70 @@
         <v>0.46</v>
       </c>
       <c r="L26" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M26" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O26" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="P26" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.79</v>
+        <v>0.791</v>
       </c>
       <c r="R26" t="n">
         <v>11.2</v>
       </c>
       <c r="S26" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="T26" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="U26" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V26" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="W26" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X26" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y26" t="n">
         <v>4.1</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.8</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AF26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
         <v>9</v>
@@ -5136,7 +5203,7 @@
         <v>15</v>
       </c>
       <c r="AL26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM26" t="n">
         <v>20</v>
@@ -5169,16 +5236,16 @@
         <v>2</v>
       </c>
       <c r="AW26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX26" t="n">
         <v>24</v>
       </c>
       <c r="AY26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA26" t="n">
         <v>9</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-11-2009-10</t>
+          <t>2010-04-11</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E27" t="n">
         <v>25</v>
       </c>
       <c r="F27" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G27" t="n">
-        <v>0.316</v>
+        <v>0.313</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
@@ -5234,10 +5301,10 @@
         <v>38.3</v>
       </c>
       <c r="J27" t="n">
-        <v>84.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="K27" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L27" t="n">
         <v>5.9</v>
@@ -5246,7 +5313,7 @@
         <v>16.9</v>
       </c>
       <c r="N27" t="n">
-        <v>0.35</v>
+        <v>0.348</v>
       </c>
       <c r="O27" t="n">
         <v>17.5</v>
@@ -5255,22 +5322,22 @@
         <v>24.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.725</v>
+        <v>0.726</v>
       </c>
       <c r="R27" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S27" t="n">
         <v>30.8</v>
       </c>
       <c r="T27" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U27" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V27" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W27" t="n">
         <v>6.8</v>
@@ -5288,25 +5355,25 @@
         <v>20.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>-4.2</v>
+        <v>-4.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI27" t="n">
         <v>10</v>
@@ -5318,25 +5385,25 @@
         <v>19</v>
       </c>
       <c r="AL27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM27" t="n">
         <v>19</v>
       </c>
       <c r="AN27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO27" t="n">
         <v>24</v>
       </c>
       <c r="AP27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ27" t="n">
         <v>28</v>
       </c>
       <c r="AR27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS27" t="n">
         <v>14</v>
@@ -5348,7 +5415,7 @@
         <v>20</v>
       </c>
       <c r="AV27" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AW27" t="n">
         <v>22</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-11-2009-10</t>
+          <t>2010-04-11</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E28" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F28" t="n">
         <v>31</v>
       </c>
       <c r="G28" t="n">
-        <v>0.608</v>
+        <v>0.613</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J28" t="n">
-        <v>81</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.472</v>
+        <v>0.473</v>
       </c>
       <c r="L28" t="n">
         <v>6.7</v>
@@ -5437,7 +5504,7 @@
         <v>23.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.744</v>
+        <v>0.743</v>
       </c>
       <c r="R28" t="n">
         <v>10.8</v>
@@ -5449,10 +5516,10 @@
         <v>42.7</v>
       </c>
       <c r="U28" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V28" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="W28" t="n">
         <v>6.2</v>
@@ -5470,31 +5537,31 @@
         <v>20.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AD28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI28" t="n">
         <v>9</v>
       </c>
-      <c r="AF28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH28" t="n">
+      <c r="AJ28" t="n">
         <v>18</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>19</v>
       </c>
       <c r="AK28" t="n">
         <v>6</v>
@@ -5509,13 +5576,13 @@
         <v>11</v>
       </c>
       <c r="AO28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR28" t="n">
         <v>16</v>
@@ -5527,7 +5594,7 @@
         <v>10</v>
       </c>
       <c r="AU28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV28" t="n">
         <v>10</v>
@@ -5536,10 +5603,10 @@
         <v>26</v>
       </c>
       <c r="AX28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AY28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ28" t="n">
         <v>13</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-11-2009-10</t>
+          <t>2010-04-11</t>
         </is>
       </c>
     </row>
@@ -5583,13 +5650,13 @@
         <v>79</v>
       </c>
       <c r="E29" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F29" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G29" t="n">
-        <v>0.468</v>
+        <v>0.481</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
@@ -5598,10 +5665,10 @@
         <v>38.8</v>
       </c>
       <c r="J29" t="n">
-        <v>81</v>
+        <v>80.8</v>
       </c>
       <c r="K29" t="n">
-        <v>0.479</v>
+        <v>0.48</v>
       </c>
       <c r="L29" t="n">
         <v>6.3</v>
@@ -5610,67 +5677,67 @@
         <v>17.1</v>
       </c>
       <c r="N29" t="n">
-        <v>0.368</v>
+        <v>0.369</v>
       </c>
       <c r="O29" t="n">
-        <v>19.7</v>
+        <v>20</v>
       </c>
       <c r="P29" t="n">
-        <v>25.8</v>
+        <v>26.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.764</v>
+        <v>0.765</v>
       </c>
       <c r="R29" t="n">
         <v>10</v>
       </c>
       <c r="S29" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T29" t="n">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="U29" t="n">
         <v>21.7</v>
       </c>
       <c r="V29" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W29" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="X29" t="n">
         <v>4.7</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="AA29" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.4</v>
+        <v>-2.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="AE29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI29" t="n">
         <v>5</v>
@@ -5691,7 +5758,7 @@
         <v>6</v>
       </c>
       <c r="AO29" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AP29" t="n">
         <v>8</v>
@@ -5703,37 +5770,37 @@
         <v>25</v>
       </c>
       <c r="AS29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT29" t="n">
         <v>23</v>
       </c>
       <c r="AU29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AW29" t="n">
         <v>30</v>
       </c>
       <c r="AX29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY29" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB29" t="n">
         <v>5</v>
       </c>
       <c r="BC29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-11-2009-10</t>
+          <t>2010-04-11</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E30" t="n">
         <v>52</v>
       </c>
       <c r="F30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G30" t="n">
-        <v>0.658</v>
+        <v>0.65</v>
       </c>
       <c r="H30" t="n">
         <v>48.2</v>
@@ -5783,25 +5850,25 @@
         <v>80.09999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.493</v>
+        <v>0.492</v>
       </c>
       <c r="L30" t="n">
         <v>5.3</v>
       </c>
       <c r="M30" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="N30" t="n">
-        <v>0.363</v>
+        <v>0.365</v>
       </c>
       <c r="O30" t="n">
         <v>20.2</v>
       </c>
       <c r="P30" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.738</v>
+        <v>0.74</v>
       </c>
       <c r="R30" t="n">
         <v>10.6</v>
@@ -5828,7 +5895,7 @@
         <v>5.4</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AA30" t="n">
         <v>22.2</v>
@@ -5837,10 +5904,10 @@
         <v>104.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
         <v>5</v>
@@ -5855,7 +5922,7 @@
         <v>24</v>
       </c>
       <c r="AI30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ30" t="n">
         <v>23</v>
@@ -5894,16 +5961,16 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW30" t="n">
         <v>4</v>
       </c>
       <c r="AX30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ30" t="n">
         <v>29</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-11-2009-10</t>
+          <t>2010-04-11</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F31" t="n">
         <v>55</v>
       </c>
       <c r="G31" t="n">
-        <v>0.304</v>
+        <v>0.313</v>
       </c>
       <c r="H31" t="n">
         <v>48.4</v>
@@ -5962,7 +6029,7 @@
         <v>36.6</v>
       </c>
       <c r="J31" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K31" t="n">
         <v>0.448</v>
@@ -5974,25 +6041,25 @@
         <v>14.9</v>
       </c>
       <c r="N31" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="O31" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P31" t="n">
         <v>23.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="R31" t="n">
         <v>11.8</v>
       </c>
       <c r="S31" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T31" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U31" t="n">
         <v>18.9</v>
@@ -6001,7 +6068,7 @@
         <v>14.8</v>
       </c>
       <c r="W31" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="X31" t="n">
         <v>5.1</v>
@@ -6010,7 +6077,7 @@
         <v>5.1</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA31" t="n">
         <v>20.5</v>
@@ -6019,22 +6086,22 @@
         <v>96.09999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>-5</v>
+        <v>-4.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE31" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF31" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG31" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AH31" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI31" t="n">
         <v>23</v>
@@ -6052,7 +6119,7 @@
         <v>23</v>
       </c>
       <c r="AN31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO31" t="n">
         <v>23</v>
@@ -6064,19 +6131,19 @@
         <v>14</v>
       </c>
       <c r="AR31" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT31" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AU31" t="n">
         <v>28</v>
       </c>
       <c r="AV31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW31" t="n">
         <v>28</v>
@@ -6085,7 +6152,7 @@
         <v>11</v>
       </c>
       <c r="AY31" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AZ31" t="n">
         <v>21</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-11-2009-10</t>
+          <t>2010-04-11</t>
         </is>
       </c>
     </row>
